--- a/20 Companies.xlsx
+++ b/20 Companies.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Sem4\Internship\20Companies\internship-search-log-payalRangra04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BD7B3B-AF5D-4FFC-9C36-5A728017A917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CACEB8-0422-4E67-BEA6-B02E827F5319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A67D192F-E072-41F3-9473-E6F2590AE6F1}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{A67D192F-E072-41F3-9473-E6F2590AE6F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t xml:space="preserve">Company Name </t>
   </si>
@@ -149,12 +149,66 @@
       <t>·</t>
     </r>
   </si>
+  <si>
+    <t>Fujitsu</t>
+  </si>
+  <si>
+    <t>Montreal ,QC</t>
+  </si>
+  <si>
+    <t>Mobile Programmer Analyst</t>
+  </si>
+  <si>
+    <t>Kinaxis</t>
+  </si>
+  <si>
+    <t>Co-op Test Developer, Product Verification</t>
+  </si>
+  <si>
+    <t>A level</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Montreal, QC</t>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>Lansweeper</t>
+  </si>
+  <si>
+    <t>info@lansweeper.com</t>
+  </si>
+  <si>
+    <t>Montreal,QC</t>
+  </si>
+  <si>
+    <t>Bombardier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubisoft </t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>jobs.montreal@ubisoft.com</t>
+  </si>
+  <si>
+    <t>LightSpeed</t>
+  </si>
+  <si>
+    <t>info@lightspeedhq.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +258,26 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -230,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -250,9 +324,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,22 +662,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113131CA-8CD1-4383-8EC8-5DF67D8927B4}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="48.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="48.8984375" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
+    <col min="4" max="4" width="44.69921875" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,7 +694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -634,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="27.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -645,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="27.6">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -662,7 +736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -673,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -682,7 +756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -690,7 +764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -698,7 +772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -709,7 +783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
@@ -717,7 +791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
@@ -728,11 +802,99 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.399999999999999">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -750,8 +912,16 @@
     <hyperlink ref="D9" r:id="rId12" xr:uid="{8E826BB4-A0EC-4F24-A2CE-D507D4F84FE7}"/>
     <hyperlink ref="D10" r:id="rId13" xr:uid="{DF05FF0C-54F8-4026-99E4-33AC25DC6C43}"/>
     <hyperlink ref="B11" r:id="rId14" display="https://www.linkedin.com/jobs/view/4016839921/?alternateChannel=search&amp;refId=UxdMcJxLuOzoePErXh16Pg%3D%3D&amp;trackingId=1StWeMUuKqzeahZ4qui5Dg%3D%3D&amp;trk=d_flagship3_search_srp_jobs" xr:uid="{B34D5BB2-C9A3-419E-9F1D-95469BC91856}"/>
+    <hyperlink ref="B12" r:id="rId15" display="https://www.linkedin.com/jobs/view/3931648784/?alternateChannel=search&amp;refId=i9JfCm7%2BC3Sn3m8u7InP1A%3D%3D&amp;trackingId=OHHkkKROoM6NY2NrM41ktw%3D%3D&amp;trk=d_flagship3_search_srp_jobs" xr:uid="{25866CF4-AADD-45F6-94AD-E9E3C7257118}"/>
+    <hyperlink ref="A13" r:id="rId16" display="https://www.linkedin.com/company/kinaxis/life" xr:uid="{493CE615-501E-4C5F-B7BF-B3A7AF2CAA90}"/>
+    <hyperlink ref="B13" r:id="rId17" display="https://www.linkedin.com/jobs/view/4023494557/?alternateChannel=search&amp;refId=k%2Frj5XHcJQW1BuJnjxVHsA%3D%3D&amp;trackingId=Fi0ItXlVIaBpcKSdBoEwjg%3D%3D&amp;trk=d_flagship3_jobs_discovery_jymbii" xr:uid="{BBDE9114-0036-457E-9018-C8B1EAEED883}"/>
+    <hyperlink ref="A14" r:id="rId18" display="https://www.linkedin.com/company/astek/life" xr:uid="{F8E46D02-E2CD-46E6-9152-66C8C2AB5CD0}"/>
+    <hyperlink ref="B14" r:id="rId19" display="https://www.linkedin.com/jobs/view/4025582659/?alternateChannel=search&amp;refId=k%2Frj5XHcJQW1BuJnjxVHsA%3D%3D&amp;trackingId=8P13HNIdhE9K6tzbEmORFg%3D%3D&amp;trk=d_flagship3_jobs_discovery_jymbii" xr:uid="{82D6F574-77FA-46F5-94AB-A0D977CA86A6}"/>
+    <hyperlink ref="A15" r:id="rId20" display="https://www.linkedin.com/company/dialogue-md/life" xr:uid="{F2A48395-8053-4323-B667-F6E3DA8805F6}"/>
+    <hyperlink ref="B15" r:id="rId21" display="https://www.linkedin.com/jobs/view/4027913589/?alternateChannel=search&amp;refId=5Djcvzu7SAiO2RXrsvQzAA%3D%3D&amp;trackingId=nFLOhiNkDATz9ajJMQlmaQ%3D%3D&amp;trk=d_flagship3_top_applicant_jobs_collection" xr:uid="{4F1CF3F4-34D6-4296-95DA-6BE39162E12C}"/>
+    <hyperlink ref="D20" r:id="rId22" xr:uid="{590F37E7-6CFD-47E3-A8F9-B35C5C53A4B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>